--- a/bd/Cam_21_5.xlsx
+++ b/bd/Cam_21_5.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
@@ -418,7 +418,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H1" t="n">
         <v>0</v>
@@ -464,13 +464,13 @@
         <v>75</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -568,13 +568,13 @@
         <v>81</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>57</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>79</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -646,13 +646,13 @@
         <v>52</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -672,15 +672,353 @@
         <v>79</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>323</v>
+      </c>
+      <c r="B12" t="n">
+        <v>872</v>
+      </c>
+      <c r="C12" t="n">
+        <v>64</v>
+      </c>
+      <c r="D12" t="n">
+        <v>49</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>241</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1204</v>
+      </c>
+      <c r="C13" t="n">
+        <v>92</v>
+      </c>
+      <c r="D13" t="n">
+        <v>59</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1275</v>
+      </c>
+      <c r="B14" t="n">
+        <v>759</v>
+      </c>
+      <c r="C14" t="n">
+        <v>37</v>
+      </c>
+      <c r="D14" t="n">
+        <v>76</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>580</v>
+      </c>
+      <c r="B15" t="n">
+        <v>849</v>
+      </c>
+      <c r="C15" t="n">
+        <v>68</v>
+      </c>
+      <c r="D15" t="n">
+        <v>47</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>77</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1179</v>
+      </c>
+      <c r="C16" t="n">
+        <v>87</v>
+      </c>
+      <c r="D16" t="n">
+        <v>45</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>258</v>
+      </c>
+      <c r="B17" t="n">
+        <v>869</v>
+      </c>
+      <c r="C17" t="n">
+        <v>63</v>
+      </c>
+      <c r="D17" t="n">
+        <v>52</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>331</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1223</v>
+      </c>
+      <c r="C18" t="n">
+        <v>73</v>
+      </c>
+      <c r="D18" t="n">
+        <v>58</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1457</v>
+      </c>
+      <c r="B19" t="n">
+        <v>741</v>
+      </c>
+      <c r="C19" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" t="n">
+        <v>71</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1165</v>
+      </c>
+      <c r="C20" t="n">
+        <v>76</v>
+      </c>
+      <c r="D20" t="n">
+        <v>31</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>181</v>
+      </c>
+      <c r="B21" t="n">
+        <v>873</v>
+      </c>
+      <c r="C21" t="n">
+        <v>58</v>
+      </c>
+      <c r="D21" t="n">
+        <v>50</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1359</v>
+      </c>
+      <c r="B22" t="n">
+        <v>746</v>
+      </c>
+      <c r="C22" t="n">
+        <v>44</v>
+      </c>
+      <c r="D22" t="n">
+        <v>77</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>94</v>
+      </c>
+      <c r="B23" t="n">
+        <v>929</v>
+      </c>
+      <c r="C23" t="n">
+        <v>54</v>
+      </c>
+      <c r="D23" t="n">
+        <v>62</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>185</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1203</v>
+      </c>
+      <c r="C24" t="n">
+        <v>86</v>
+      </c>
+      <c r="D24" t="n">
+        <v>46</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" t="n">
         <v>0</v>
       </c>
     </row>
